--- a/notes/latex table test.xlsx
+++ b/notes/latex table test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19180" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="25600" windowHeight="12820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Species Averages" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="50">
   <si>
     <t>Factor</t>
   </si>
@@ -128,15 +128,6 @@
     <t>Plant and Yeast</t>
   </si>
   <si>
-    <t>er and golgi</t>
-  </si>
-  <si>
-    <t>er and pm</t>
-  </si>
-  <si>
-    <t>er and mitochondria</t>
-  </si>
-  <si>
     <t>SL-9908_24_4_2018/SL-9908_24_4_2018-after_cdhit_plant.csv</t>
   </si>
   <si>
@@ -174,6 +165,15 @@
   </si>
   <si>
     <t>Mito</t>
+  </si>
+  <si>
+    <t>ER and Golgi</t>
+  </si>
+  <si>
+    <t>ER and PM</t>
+  </si>
+  <si>
+    <t>ER and mitochondria</t>
   </si>
 </sst>
 </file>
@@ -2418,16 +2418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3606800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3409,7 +3409,7 @@
       <cdr:y>0.14759</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65218</cdr:x>
+      <cdr:x>0.46036</cdr:x>
       <cdr:y>0.25709</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -3419,8 +3419,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1262168" y="622287"/>
-          <a:ext cx="1976348" cy="461696"/>
+          <a:off x="1262182" y="622298"/>
+          <a:ext cx="1023818" cy="461696"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4300,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="12.75" customHeight="1">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1025" ht="12.75" customHeight="1">
@@ -4322,13 +4322,13 @@
     </row>
     <row r="3" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>-0.224249897893989</v>
@@ -4371,7 +4371,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AM3" t="s">
         <v>6</v>
@@ -4389,7 +4389,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AS3" t="s">
         <v>6</v>
@@ -4407,7 +4407,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AY3" t="s">
         <v>6</v>
@@ -4425,7 +4425,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="BD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BE3" t="s">
         <v>6</v>
@@ -4443,7 +4443,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="BJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BK3" t="s">
         <v>6</v>
@@ -4461,7 +4461,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="BP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BQ3" t="s">
         <v>6</v>
@@ -4479,7 +4479,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="BV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BW3" t="s">
         <v>6</v>
@@ -4497,7 +4497,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="CB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="CC3" t="s">
         <v>6</v>
@@ -4515,7 +4515,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="CH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="CI3" t="s">
         <v>6</v>
@@ -4533,7 +4533,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="CN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="CO3" t="s">
         <v>6</v>
@@ -4551,7 +4551,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="CT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="CU3" t="s">
         <v>6</v>
@@ -4569,7 +4569,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="CZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="DA3" t="s">
         <v>6</v>
@@ -4587,7 +4587,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="DF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="DG3" t="s">
         <v>6</v>
@@ -4605,7 +4605,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="DL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="DM3" t="s">
         <v>6</v>
@@ -4623,7 +4623,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="DR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="DS3" t="s">
         <v>6</v>
@@ -4641,7 +4641,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="DX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="DY3" t="s">
         <v>6</v>
@@ -4659,7 +4659,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ED3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="EE3" t="s">
         <v>6</v>
@@ -4677,7 +4677,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="EJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="EK3" t="s">
         <v>6</v>
@@ -4695,7 +4695,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="EP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="EQ3" t="s">
         <v>6</v>
@@ -4713,7 +4713,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="EV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="EW3" t="s">
         <v>6</v>
@@ -4731,7 +4731,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="FB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="FC3" t="s">
         <v>6</v>
@@ -4749,7 +4749,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="FH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="FI3" t="s">
         <v>6</v>
@@ -4767,7 +4767,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="FN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="FO3" t="s">
         <v>6</v>
@@ -4785,7 +4785,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="FT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="FU3" t="s">
         <v>6</v>
@@ -4803,7 +4803,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="FZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="GA3" t="s">
         <v>6</v>
@@ -4821,7 +4821,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="GF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="GG3" t="s">
         <v>6</v>
@@ -4839,7 +4839,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="GL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="GM3" t="s">
         <v>6</v>
@@ -4857,7 +4857,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="GR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="GS3" t="s">
         <v>6</v>
@@ -4875,7 +4875,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="GX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="GY3" t="s">
         <v>6</v>
@@ -4893,7 +4893,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="HD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -4911,7 +4911,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="HJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="HK3" t="s">
         <v>6</v>
@@ -4929,7 +4929,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="HP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="HQ3" t="s">
         <v>6</v>
@@ -4947,7 +4947,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="HV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="HW3" t="s">
         <v>6</v>
@@ -4965,7 +4965,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="IB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="IC3" t="s">
         <v>6</v>
@@ -4983,7 +4983,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="IH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="II3" t="s">
         <v>6</v>
@@ -5001,7 +5001,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="IN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="IO3" t="s">
         <v>6</v>
@@ -5019,7 +5019,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="IT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="IU3" t="s">
         <v>6</v>
@@ -5037,7 +5037,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="IZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="JA3" t="s">
         <v>6</v>
@@ -5055,7 +5055,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="JF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="JG3" t="s">
         <v>6</v>
@@ -5073,7 +5073,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="JL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="JM3" t="s">
         <v>6</v>
@@ -5091,7 +5091,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="JR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="JS3" t="s">
         <v>6</v>
@@ -5109,7 +5109,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="JX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="JY3" t="s">
         <v>6</v>
@@ -5127,7 +5127,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="KD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="KE3" t="s">
         <v>6</v>
@@ -5145,7 +5145,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="KJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="KK3" t="s">
         <v>6</v>
@@ -5163,7 +5163,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="KP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="KQ3" t="s">
         <v>6</v>
@@ -5181,7 +5181,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="KV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="KW3" t="s">
         <v>6</v>
@@ -5199,7 +5199,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="LB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="LC3" t="s">
         <v>6</v>
@@ -5217,7 +5217,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="LH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="LI3" t="s">
         <v>6</v>
@@ -5235,7 +5235,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="LN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="LO3" t="s">
         <v>6</v>
@@ -5253,7 +5253,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="LT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="LU3" t="s">
         <v>6</v>
@@ -5271,7 +5271,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="LZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="MA3" t="s">
         <v>6</v>
@@ -5289,7 +5289,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="MF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="MG3" t="s">
         <v>6</v>
@@ -5307,7 +5307,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ML3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="MM3" t="s">
         <v>6</v>
@@ -5325,7 +5325,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="MR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="MS3" t="s">
         <v>6</v>
@@ -5343,7 +5343,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="MX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="MY3" t="s">
         <v>6</v>
@@ -5361,7 +5361,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ND3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NE3" t="s">
         <v>6</v>
@@ -5379,7 +5379,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="NJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NK3" t="s">
         <v>6</v>
@@ -5397,7 +5397,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="NP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NQ3" t="s">
         <v>6</v>
@@ -5415,7 +5415,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="NV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="NW3" t="s">
         <v>6</v>
@@ -5433,7 +5433,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="OB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OC3" t="s">
         <v>6</v>
@@ -5451,7 +5451,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="OH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OI3" t="s">
         <v>6</v>
@@ -5469,7 +5469,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ON3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OO3" t="s">
         <v>6</v>
@@ -5487,7 +5487,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="OT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="OU3" t="s">
         <v>6</v>
@@ -5505,7 +5505,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="OZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="PA3" t="s">
         <v>6</v>
@@ -5523,7 +5523,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="PF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="PG3" t="s">
         <v>6</v>
@@ -5541,7 +5541,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="PL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="PM3" t="s">
         <v>6</v>
@@ -5559,7 +5559,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="PR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="PS3" t="s">
         <v>6</v>
@@ -5577,7 +5577,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="PX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="PY3" t="s">
         <v>6</v>
@@ -5595,7 +5595,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="QD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="QE3" t="s">
         <v>6</v>
@@ -5613,7 +5613,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="QJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="QK3" t="s">
         <v>6</v>
@@ -5631,7 +5631,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="QP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="QQ3" t="s">
         <v>6</v>
@@ -5649,7 +5649,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="QV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="QW3" t="s">
         <v>6</v>
@@ -5667,7 +5667,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="RB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="RC3" t="s">
         <v>6</v>
@@ -5685,7 +5685,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="RH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -5703,7 +5703,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="RN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="RO3" t="s">
         <v>6</v>
@@ -5721,7 +5721,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="RT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="RU3" t="s">
         <v>6</v>
@@ -5739,7 +5739,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="RZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="SA3" t="s">
         <v>6</v>
@@ -5757,7 +5757,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="SF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="SG3" t="s">
         <v>6</v>
@@ -5775,7 +5775,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="SL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="SM3" t="s">
         <v>6</v>
@@ -5793,7 +5793,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="SR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="SS3" t="s">
         <v>6</v>
@@ -5811,7 +5811,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="SX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="SY3" t="s">
         <v>6</v>
@@ -5829,7 +5829,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="TD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="TE3" t="s">
         <v>6</v>
@@ -5847,7 +5847,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="TJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="TK3" t="s">
         <v>6</v>
@@ -5865,7 +5865,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="TP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="TQ3" t="s">
         <v>6</v>
@@ -5883,7 +5883,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="TV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="TW3" t="s">
         <v>6</v>
@@ -5901,7 +5901,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="UB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="UC3" t="s">
         <v>6</v>
@@ -5919,7 +5919,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="UH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="UI3" t="s">
         <v>6</v>
@@ -5937,7 +5937,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="UN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="UO3" t="s">
         <v>6</v>
@@ -5955,7 +5955,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="UT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="UU3" t="s">
         <v>6</v>
@@ -5973,7 +5973,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="UZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="VA3" t="s">
         <v>6</v>
@@ -5991,7 +5991,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="VF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="VG3" t="s">
         <v>6</v>
@@ -6009,7 +6009,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="VL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="VM3" t="s">
         <v>6</v>
@@ -6027,7 +6027,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="VR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="VS3" t="s">
         <v>6</v>
@@ -6045,7 +6045,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="VX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="VY3" t="s">
         <v>6</v>
@@ -6063,7 +6063,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="WD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="WE3" t="s">
         <v>6</v>
@@ -6081,7 +6081,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="WJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="WK3" t="s">
         <v>6</v>
@@ -6099,7 +6099,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="WP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="WQ3" t="s">
         <v>6</v>
@@ -6117,7 +6117,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="WV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="WW3" t="s">
         <v>6</v>
@@ -6135,7 +6135,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="XB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="XC3" t="s">
         <v>6</v>
@@ -6153,7 +6153,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="XH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="XI3" t="s">
         <v>6</v>
@@ -6171,7 +6171,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="XN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="XO3" t="s">
         <v>6</v>
@@ -6189,7 +6189,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="XT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="XU3" t="s">
         <v>6</v>
@@ -6207,7 +6207,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="XZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="YA3" t="s">
         <v>6</v>
@@ -6225,7 +6225,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="YF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="YG3" t="s">
         <v>6</v>
@@ -6243,7 +6243,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="YL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="YM3" t="s">
         <v>6</v>
@@ -6261,7 +6261,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="YR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="YS3" t="s">
         <v>6</v>
@@ -6279,7 +6279,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="YX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="YY3" t="s">
         <v>6</v>
@@ -6297,7 +6297,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ZD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ZE3" t="s">
         <v>6</v>
@@ -6315,7 +6315,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ZJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ZK3" t="s">
         <v>6</v>
@@ -6333,7 +6333,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ZP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ZQ3" t="s">
         <v>6</v>
@@ -6351,7 +6351,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ZV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ZW3" t="s">
         <v>6</v>
@@ -6369,7 +6369,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AAB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AAC3" t="s">
         <v>6</v>
@@ -6387,7 +6387,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AAH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AAI3" t="s">
         <v>6</v>
@@ -6405,7 +6405,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AAN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AAO3" t="s">
         <v>6</v>
@@ -6423,7 +6423,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AAT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AAU3" t="s">
         <v>6</v>
@@ -6441,7 +6441,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AAZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ABA3" t="s">
         <v>6</v>
@@ -6459,7 +6459,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ABF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ABG3" t="s">
         <v>6</v>
@@ -6477,7 +6477,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ABL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ABM3" t="s">
         <v>6</v>
@@ -6495,7 +6495,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ABR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ABS3" t="s">
         <v>6</v>
@@ -6513,7 +6513,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ABX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ABY3" t="s">
         <v>6</v>
@@ -6531,7 +6531,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ACD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ACE3" t="s">
         <v>6</v>
@@ -6549,7 +6549,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ACJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ACK3" t="s">
         <v>6</v>
@@ -6567,7 +6567,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ACP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ACQ3" t="s">
         <v>6</v>
@@ -6585,7 +6585,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ACV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ACW3" t="s">
         <v>6</v>
@@ -6603,7 +6603,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ADB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ADC3" t="s">
         <v>6</v>
@@ -6621,7 +6621,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ADH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ADI3" t="s">
         <v>6</v>
@@ -6639,7 +6639,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ADN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ADO3" t="s">
         <v>6</v>
@@ -6657,7 +6657,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ADT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ADU3" t="s">
         <v>6</v>
@@ -6675,7 +6675,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ADZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AEA3" t="s">
         <v>6</v>
@@ -6693,7 +6693,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AEF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AEG3" t="s">
         <v>6</v>
@@ -6711,7 +6711,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AEL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AEM3" t="s">
         <v>6</v>
@@ -6729,7 +6729,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AER3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AES3" t="s">
         <v>6</v>
@@ -6747,7 +6747,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AEX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AEY3" t="s">
         <v>6</v>
@@ -6765,7 +6765,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AFD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AFE3" t="s">
         <v>6</v>
@@ -6783,7 +6783,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AFJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AFK3" t="s">
         <v>6</v>
@@ -6801,7 +6801,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AFP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AFQ3" t="s">
         <v>6</v>
@@ -6819,7 +6819,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AFV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AFW3" t="s">
         <v>6</v>
@@ -6837,7 +6837,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AGB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AGC3" t="s">
         <v>6</v>
@@ -6855,7 +6855,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AGH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AGI3" t="s">
         <v>6</v>
@@ -6873,7 +6873,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AGN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AGO3" t="s">
         <v>6</v>
@@ -6891,7 +6891,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AGT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AGU3" t="s">
         <v>6</v>
@@ -6909,7 +6909,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AGZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AHA3" t="s">
         <v>6</v>
@@ -6927,7 +6927,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AHF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AHG3" t="s">
         <v>6</v>
@@ -6945,7 +6945,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AHL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -6963,7 +6963,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AHR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AHS3" t="s">
         <v>6</v>
@@ -6981,7 +6981,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AHX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AHY3" t="s">
         <v>6</v>
@@ -6999,7 +6999,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AID3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AIE3" t="s">
         <v>6</v>
@@ -7017,7 +7017,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AIJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AIK3" t="s">
         <v>6</v>
@@ -7035,7 +7035,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AIP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AIQ3" t="s">
         <v>6</v>
@@ -7053,7 +7053,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AIV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AIW3" t="s">
         <v>6</v>
@@ -7071,7 +7071,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AJB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AJC3" t="s">
         <v>6</v>
@@ -7089,7 +7089,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AJH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AJI3" t="s">
         <v>6</v>
@@ -7107,7 +7107,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AJN3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AJO3" t="s">
         <v>6</v>
@@ -7125,7 +7125,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AJT3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AJU3" t="s">
         <v>6</v>
@@ -7143,7 +7143,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AJZ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AKA3" t="s">
         <v>6</v>
@@ -7161,7 +7161,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AKF3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AKG3" t="s">
         <v>6</v>
@@ -7179,7 +7179,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AKL3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AKM3" t="s">
         <v>6</v>
@@ -7197,7 +7197,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AKR3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AKS3" t="s">
         <v>6</v>
@@ -7215,7 +7215,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AKX3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AKY3" t="s">
         <v>6</v>
@@ -7233,7 +7233,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ALD3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ALE3" t="s">
         <v>6</v>
@@ -7251,7 +7251,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ALJ3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ALK3" t="s">
         <v>6</v>
@@ -7269,7 +7269,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ALP3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ALQ3" t="s">
         <v>6</v>
@@ -7287,7 +7287,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="ALV3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="ALW3" t="s">
         <v>6</v>
@@ -7305,7 +7305,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AMB3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AMC3" t="s">
         <v>6</v>
@@ -7323,7 +7323,7 @@
         <v>0.55879965791685404</v>
       </c>
       <c r="AMH3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AMI3" t="s">
         <v>6</v>
@@ -7337,13 +7337,13 @@
     </row>
     <row r="4" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>-0.24304242625358699</v>
@@ -9857,13 +9857,13 @@
     </row>
     <row r="5" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>-0.23224545435598201</v>
@@ -12377,13 +12377,13 @@
     </row>
     <row r="6" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>-0.21953156438327701</v>
@@ -12405,13 +12405,13 @@
     </row>
     <row r="7" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>-0.22894481620644999</v>
@@ -12433,13 +12433,13 @@
     </row>
     <row r="8" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>-0.217337752443864</v>
@@ -12461,13 +12461,13 @@
     </row>
     <row r="9" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>2.4189826946474802</v>
@@ -12489,13 +12489,13 @@
     </row>
     <row r="10" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>2.59386037179301</v>
@@ -12517,13 +12517,13 @@
     </row>
     <row r="11" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>2.41380599845021</v>
@@ -12545,13 +12545,13 @@
     </row>
     <row r="12" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>2.33708610865289</v>
@@ -12573,13 +12573,13 @@
     </row>
     <row r="13" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>2.4327741893144799</v>
@@ -12601,13 +12601,13 @@
     </row>
     <row r="14" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
         <v>2.3046055516355799</v>
@@ -12629,13 +12629,13 @@
     </row>
     <row r="15" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1">
         <v>2.4189826946474802</v>
@@ -12657,13 +12657,13 @@
     </row>
     <row r="16" spans="1:1025" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
         <v>2.59386037179301</v>
@@ -12680,13 +12680,13 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1">
         <v>2.41380599845021</v>
@@ -12703,13 +12703,13 @@
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>2.33708610865289</v>
@@ -12726,13 +12726,13 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <v>2.4327741893144799</v>
@@ -12749,13 +12749,13 @@
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>2.3046055516355799</v>
@@ -13773,8 +13773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -13809,7 +13809,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -13832,7 +13832,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -13855,7 +13855,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -13878,7 +13878,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -13901,7 +13901,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -13924,7 +13924,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -13947,7 +13947,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -13970,7 +13970,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -13993,7 +13993,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -14016,7 +14016,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -14039,7 +14039,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -14062,7 +14062,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -14085,7 +14085,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -14108,7 +14108,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -14131,7 +14131,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -14154,7 +14154,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -14177,7 +14177,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -14200,7 +14200,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -14223,7 +14223,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -14246,7 +14246,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -14269,7 +14269,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -14292,7 +14292,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -14315,7 +14315,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -14338,7 +14338,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -15354,7 +15354,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
+      <selection activeCell="I33" sqref="I33:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -16896,7 +16896,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -16908,14 +16908,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
@@ -16948,7 +16952,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -16983,9 +16987,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -17018,9 +17020,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -17053,7 +17053,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -17088,9 +17088,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -17123,9 +17121,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -17158,7 +17154,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
@@ -17193,9 +17189,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -17228,9 +17222,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -17263,7 +17255,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
@@ -17298,9 +17290,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -17333,9 +17323,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -17368,7 +17356,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
@@ -17403,9 +17391,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -17438,9 +17424,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -17473,7 +17457,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
@@ -17508,9 +17492,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -17543,9 +17525,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -18558,6 +18538,16 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
@@ -18576,8 +18566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -20119,7 +20109,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -20131,15 +20121,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="C2" t="s">
@@ -20171,7 +20167,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -20206,9 +20202,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -20241,9 +20235,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -20276,7 +20268,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -20311,9 +20303,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -20346,9 +20336,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -20381,7 +20369,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
@@ -20416,9 +20404,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -20451,9 +20437,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -20486,7 +20470,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
@@ -20521,9 +20505,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -20556,9 +20538,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -20591,7 +20571,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
@@ -20626,9 +20606,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -20661,9 +20639,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -20696,7 +20672,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
@@ -20731,9 +20707,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -20766,9 +20740,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -21805,6 +21777,17 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>

--- a/notes/latex table test.xlsx
+++ b/notes/latex table test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28760" windowHeight="16540" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Species Averages" sheetId="1" r:id="rId1"/>
@@ -1150,11 +1150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127558712"/>
-        <c:axId val="2132599704"/>
+        <c:axId val="-2131978008"/>
+        <c:axId val="-2131610520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127558712"/>
+        <c:axId val="-2131978008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1202,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2132599704"/>
+        <c:crossAx val="-2131610520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132599704"/>
+        <c:axId val="-2131610520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1262,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2127558712"/>
+        <c:crossAx val="-2131978008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1674,11 +1674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127343736"/>
-        <c:axId val="-2127326808"/>
+        <c:axId val="-2131715544"/>
+        <c:axId val="-2131721288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127343736"/>
+        <c:axId val="-2131715544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1726,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2127326808"/>
+        <c:crossAx val="-2131721288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1734,7 +1734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127326808"/>
+        <c:axId val="-2131721288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +1786,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2127343736"/>
+        <c:crossAx val="-2131715544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2198,11 +2198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2130404664"/>
-        <c:axId val="-2106373048"/>
+        <c:axId val="-2121888920"/>
+        <c:axId val="-2121883192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2130404664"/>
+        <c:axId val="-2121888920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2250,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2106373048"/>
+        <c:crossAx val="-2121883192"/>
         <c:crossesAt val="-0.3"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +2260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106373048"/>
+        <c:axId val="-2121883192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-0.1"/>
@@ -2309,7 +2309,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2130404664"/>
+        <c:crossAx val="-2121888920"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2721,11 +2721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2106140024"/>
-        <c:axId val="2063153048"/>
+        <c:axId val="-2121829384"/>
+        <c:axId val="-2121823656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2106140024"/>
+        <c:axId val="-2121829384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2773,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2063153048"/>
+        <c:crossAx val="-2121823656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063153048"/>
+        <c:axId val="-2121823656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.0"/>
@@ -2828,7 +2828,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2106140024"/>
+        <c:crossAx val="-2121829384"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14228,7 +14228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -15810,7 +15810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -22011,15 +22011,15 @@
     <row r="1016" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
